--- a/dados/lsdistribuidoraa.xlsx
+++ b/dados/lsdistribuidoraa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=ae1d3264-bc89-4ac3-a02a-c858e8dab1be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=35c8b8ba-9c4d-4355-a2d1-db1a5705d3ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=3179e801-cd22-47de-bda2-e8e36dccdccf</t>
         </is>
       </c>
     </row>
@@ -671,17 +749,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D489248ed-19c5-49a1-ba17-fdd3077856fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D489248ed-19c5-49a1-ba17-fdd3077856fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D489248ed-19c5-49a1-ba17-fdd3077856fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D489248ed-19c5-49a1-ba17-fdd3077856fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D489248ed-19c5-49a1-ba17-fdd3077856fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
         </is>
       </c>
     </row>
@@ -796,17 +912,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7639496f-1757-4a84-a599-d6f387eda125</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
         </is>
       </c>
     </row>
@@ -821,17 +947,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7639496f-1757-4a84-a599-d6f387eda125</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
         </is>
       </c>
     </row>
@@ -846,17 +982,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c333457-d614-4eac-9525-e256c44bec95</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
         </is>
       </c>
     </row>
@@ -871,17 +1013,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c333457-d614-4eac-9525-e256c44bec95</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
         </is>
       </c>
     </row>
@@ -896,17 +1048,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c333457-d614-4eac-9525-e256c44bec95</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
         </is>
       </c>
     </row>
@@ -921,17 +1083,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c333457-d614-4eac-9525-e256c44bec95</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
         </is>
       </c>
     </row>
@@ -946,17 +1118,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17507ecf-4c04-40b6-b43e-1d9eaa6fa129</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddbf63401-fffd-4d3a-a706-a581b9f00ad5</t>
         </is>
       </c>
     </row>
@@ -971,17 +1153,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7276988b-5f54-476a-a4d3-a79adf707807</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddbf63401-fffd-4d3a-a706-a581b9f00ad5</t>
         </is>
       </c>
     </row>
@@ -996,17 +1184,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7276988b-5f54-476a-a4d3-a79adf707807</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1219,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7276988b-5f54-476a-a4d3-a79adf707807</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1254,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7276988b-5f54-476a-a4d3-a79adf707807</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1289,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7276988b-5f54-476a-a4d3-a79adf707807</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1324,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c26f6e5-29ea-4a22-a3e0-db24ff47b86f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1359,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c26f6e5-29ea-4a22-a3e0-db24ff47b86f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1390,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c26f6e5-29ea-4a22-a3e0-db24ff47b86f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1421,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df978e0c0-0d86-4916-baf4-5b6bdef09abf</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df473d421-0d98-4225-8fa5-24b4a0d7c30f</t>
         </is>
       </c>
     </row>

--- a/dados/lsdistribuidoraa.xlsx
+++ b/dados/lsdistribuidoraa.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,18 +476,18 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>84</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -507,18 +507,18 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>109</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -538,18 +538,18 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>44.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>568.15</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>754.4400000000001</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -619,7 +619,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -639,14 +639,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>624.33</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>466.39</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -689,7 +689,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a25e889-6467-43cb-92d9-96bbf97459b9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
         </is>
       </c>
     </row>
@@ -709,14 +709,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>540.96</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -724,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -734,28 +734,28 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=3179e801-cd22-47de-bda2-e8e36dccdccf</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=e31eed98-d679-4aa7-b58f-c69e892be3ca</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C10" t="n">
+        <v>460</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,28 +765,28 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>460</v>
-      </c>
-      <c r="C11" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C11" t="n">
+        <v>63.65</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -796,32 +796,28 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>384.16</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -831,28 +827,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>384.16</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
         </is>
       </c>
     </row>
@@ -872,14 +872,14 @@
           <t>Fonte Automotiva Jfa 70a Storm</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>493.42</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -887,7 +887,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88d94529-b095-451e-abfe-39fb1b80909b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
         </is>
       </c>
     </row>
@@ -907,14 +907,14 @@
           <t>Fonte Automotiva Jfa 60a Storm</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>466.39</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -922,7 +922,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
         </is>
       </c>
     </row>
@@ -942,14 +942,14 @@
           <t>Fonte Automotiva Jfa 40a Storm</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>433</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -957,7 +957,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
         </is>
       </c>
     </row>
@@ -977,18 +977,18 @@
           <t>Controle Longa Distância Jfa K600 600 Metros Com Cordão</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>62.97</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C17" t="n">
+        <v>58.28</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1f725da-e4c9-43e8-a2ed-904e4893296a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1008,14 @@
           <t>Fonte Automotiva Jfa 120a Storm</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>710.1900000000001</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
         </is>
       </c>
     </row>
@@ -1043,14 +1043,14 @@
           <t>Fonte Automotiva Jfa Storm Lite 70a Carregador De Bateria</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>457.29</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
         </is>
       </c>
     </row>
@@ -1078,14 +1078,14 @@
           <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>603.54</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df6bb5fe8-0ace-468f-a749-620a686c1711</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
         </is>
       </c>
     </row>
@@ -1113,14 +1113,14 @@
           <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>717.72</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddbf63401-fffd-4d3a-a706-a581b9f00ad5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
         </is>
       </c>
     </row>
@@ -1148,18 +1148,18 @@
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>430</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1169,77 +1169,77 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddbf63401-fffd-4d3a-a706-a581b9f00ad5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>445.19</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>445.19</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>523.63</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
         </is>
       </c>
     </row>
@@ -1249,14 +1249,14 @@
           <t>Fonte Automotiva Jfa 60a Storm</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>473.28</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D363655c5-72c2-41e9-938a-747c9f309992</t>
         </is>
       </c>
     </row>
@@ -1284,14 +1284,14 @@
           <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>410.97</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1309,32 +1309,28 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94c38b62-c0ed-466d-9680-d8c609918691</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D363655c5-72c2-41e9-938a-747c9f309992</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1344,28 +1340,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Filtro Anti Rúido Jfa - 20k</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>75</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
         </is>
       </c>
     </row>
@@ -1385,18 +1385,18 @@
           <t>Filtro Anti Rúido Jfa - 20k</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>125</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De30b8ef7-c8b8-4178-88f4-f442a667905a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
         </is>
       </c>
     </row>
@@ -1416,13 +1416,13 @@
           <t>Voltímetro Jfa V12</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>60</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df473d421-0d98-4225-8fa5-24b4a0d7c30f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cdbe40a-3ac1-4f38-bfdb-8a4fbe5d7a01</t>
         </is>
       </c>
     </row>

--- a/dados/lsdistribuidoraa.xlsx
+++ b/dados/lsdistribuidoraa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,16 +478,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>84</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,28 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>568.15</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,89 +536,93 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>754.4400000000001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>568.15</v>
+        <v>624.33</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>754.4400000000001</v>
+        <v>466.39</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -619,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -629,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>624.33</v>
+        <v>540.96</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -664,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f05469cf-a3b0-41f1-9401-ba3166d07c1e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>466.39</v>
+        <v>63.65</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -699,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b46b015-06a0-4dd0-a14b-5cefceba633e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc035532-5edb-47ed-94e1-77b4b8a6e7fe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>540.96</v>
+        <v>57.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -734,28 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=e31eed98-d679-4aa7-b58f-c69e892be3ca</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc035532-5edb-47ed-94e1-77b4b8a6e7fe</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa 40a Storm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>460</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>433</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,104 +781,108 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>384.16</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>410.97</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>384.16</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
         </is>
       </c>
     </row>
@@ -887,7 +907,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,23 +917,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f1e63e-80dd-4cb9-a834-1b73be983903</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Storm</t>
+          <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>466.39</v>
+        <v>717.72</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -922,7 +942,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,42 +952,42 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 40a Storm</t>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>433</v>
+        <v>466.39</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
         </is>
       </c>
     </row>
@@ -979,16 +999,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>58.28</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -998,7 +1022,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a0cdf7c-2837-4b08-97dc-b5ef2c0a7c32</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1047,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1033,7 +1057,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc3eb13c-a993-4a45-8453-4b351a137319</t>
         </is>
       </c>
     </row>
@@ -1049,16 +1073,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>457.29</v>
+        <v>434.42</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1068,58 +1092,54 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc3eb13c-a993-4a45-8453-4b351a137319</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>603.54</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70fedf37-4b01-4ea4-b2eb-05e1900228f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd7614f10-76a9-42d0-8dc3-858624fb6de8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>717.72</v>
+        <v>603.54</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1128,108 +1148,108 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd7614f10-76a9-42d0-8dc3-858624fb6de8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>430</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>473.28</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>445.19</v>
+        <v>523.63</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1239,23 +1259,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd074fcdd-a6da-4d51-b033-db71fc898367</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Storm</t>
+          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>473.28</v>
+        <v>523.63</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1264,7 +1284,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1274,98 +1294,94 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D363655c5-72c2-41e9-938a-747c9f309992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>410.97</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D363655c5-72c2-41e9-938a-747c9f309992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Filtro Anti Rúido Jfa - 20k</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>75</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>445.19</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
+          <t>Voltímetro Jfa V12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1375,69 +1391,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Filtro Anti Rúido Jfa - 20k</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>125</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D861066b1-d4ee-4db3-9635-48176de93819</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Voltímetro Jfa V12</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>60</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cdbe40a-3ac1-4f38-bfdb-8a4fbe5d7a01</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddf825f2d-97cb-485f-be1b-5d4d2980d28b</t>
         </is>
       </c>
     </row>

--- a/dados/lsdistribuidoraa.xlsx
+++ b/dados/lsdistribuidoraa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,925 +483,1854 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>84</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>568.15</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>754.4400000000001</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>624.33</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>754.4400000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#searchVariation=MLB24834408&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>466.39</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=c4890fe4-d8e2-4cd6-a5c7-50feb923f1b9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>540.96</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>525.75</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f05469cf-a3b0-41f1-9401-ba3166d07c1e</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=fadf33ba-237a-4ab3-a838-2d2fd43d28a5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>63.65</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>564.48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc035532-5edb-47ed-94e1-77b4b8a6e7fe</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#searchVariation=MLB23998473&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=b04d838a-33c0-4177-8e74-a69343256159</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>57.6</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>890.39</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc035532-5edb-47ed-94e1-77b4b8a6e7fe</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:26540544#searchVariation=MLB21348561&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=2b308041-6928-46b8-af11-d2e22b2bae83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 40a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>433</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Voltímetro E Sequenciador Jfa Vs5hi Baixa/alta Voltagem</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609348308-fonte-automotiva-jfa-40a-storm-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411236986-voltimetro-e-sequenciador-jfa-vs5hi-baixaalta-voltagem-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2b308041-6928-46b8-af11-d2e22b2bae83</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>384.16</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>57.6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cc4412e-c287-426e-9ba4-e2ea0e7b523a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>410.97</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Voltímetro E Sequenciador Jfa Vs5hi</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>57</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634323440-voltimetro-e-sequenciador-jfa-vs5hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cc4412e-c287-426e-9ba4-e2ea0e7b523a</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>460</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>62.98</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cc4412e-c287-426e-9ba4-e2ea0e7b523a</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>493.42</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D201a4bc3-9463-4b34-8c23-81395464ccbd</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609441377-fonte-automotiva-jfa-200a-storm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cc4412e-c287-426e-9ba4-e2ea0e7b523a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>717.72</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>498.19</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab1c9981-7109-499f-852c-27ab59bd1a6e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>466.39</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>410.97</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab1c9981-7109-499f-852c-27ab59bd1a6e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Com Cordão</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>58.28</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>384.16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1683658-4b0b-4bc9-b38e-e92761be467c</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab1c9981-7109-499f-852c-27ab59bd1a6e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>710.1900000000001</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 600 Metros Com Cordão</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>58.28</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc3eb13c-a993-4a45-8453-4b351a137319</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9539e45-25ee-4d4a-9e84-dd03608f9d58</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Carregador De Bateria</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>434.42</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt </t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>568.15</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc3eb13c-a993-4a45-8453-4b351a137319</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3435408439-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9539e45-25ee-4d4a-9e84-dd03608f9d58</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>430</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>519.39</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd7614f10-76a9-42d0-8dc3-858624fb6de8</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D24199e9a-d2b8-40b1-b3b1-54f2e2729400</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>603.54</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>460</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd7614f10-76a9-42d0-8dc3-858624fb6de8</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D24199e9a-d2b8-40b1-b3b1-54f2e2729400</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>473.28</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>731.39</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2735744003-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42b74ecd-e947-4862-88ab-5b3667b87ddb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>523.63</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>890.39</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609359937-fonte-automotiva-jfa-200a-storm-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42b74ecd-e947-4862-88ab-5b3667b87ddb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Filtro Anti Rúido Jfa - 20k</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>75</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De090904c-ca85-419a-8862-dbba6da5102b</t>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42b74ecd-e947-4862-88ab-5b3667b87ddb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>523.63</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>717.72</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637534864-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Filtro Anti Rúido Jfa - 20k</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E26" t="n">
+        <v>47</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3666174505-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>445.19</v>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>125</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6a96170-2f72-4bd9-85f7-d32935106afa</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637576386-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Storm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>710.1900000000001</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3779492485-fonte-automotiva-jfa-120a-storm-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>572</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3740590529-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>465</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4787074982-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Preto</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3771413321-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 40a Storm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>455.79</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794932186-fonte-automotiva-jfa-40a-storm-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3212266-8519-4522-9129-efac02291049</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Preto</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>445.19</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3771437003-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c6e8c51-1515-444c-88ba-f885002a072f</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 40a Storm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>423.99</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794918634-fonte-automotiva-jfa-40a-storm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c6e8c51-1515-444c-88ba-f885002a072f</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>603.54</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c6e8c51-1515-444c-88ba-f885002a072f</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>551.1900000000001</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8c6e8c51-1515-444c-88ba-f885002a072f</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>430</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd664b853-626f-4910-94ce-fdb70c6d6f32</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>445.19</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd664b853-626f-4910-94ce-fdb70c6d6f32</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Storm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>667.79</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609428369-fonte-automotiva-jfa-120a-storm-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd664b853-626f-4910-94ce-fdb70c6d6f32</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Voltímetro Jfa V12</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E42" t="n">
         <v>60</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddf825f2d-97cb-485f-be1b-5d4d2980d28b</t>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd664b853-626f-4910-94ce-fdb70c6d6f32</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Carregador De Bateria</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>457.29</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd664b853-626f-4910-94ce-fdb70c6d6f32</t>
         </is>
       </c>
     </row>

--- a/dados/lsdistribuidoraa.xlsx
+++ b/dados/lsdistribuidoraa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,22 +493,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -521,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3618124147-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +534,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>466.39</v>
+        <v>395.68</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -561,19 +557,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#searchVariation=MLB21562641&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3637614768-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +579,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>466.39</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:26540544#searchVariation=MLB28557249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:26540544#wid=MLB4002800700&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,25 +624,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Voltímetro Jfa V12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>754.4400000000001</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,14 +648,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1634318107-voltimetro-jfa-v12-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,18 +665,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>739.25</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -697,14 +693,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#searchVariation=MLB25707531&amp;position=35&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:26540544#wid=MLB3894368414&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,35 +710,1905 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>731.39</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2735744003-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:26540544#wid=MLB3492069045&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Carregador De Bateria</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>471.01</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4450980146-fonte-automotiva-jfa-storm-lite-70a-carregador-de-bateria-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>581.42</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:26540544#wid=MLB3405941093&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:26540544#wid=MLB4532982266&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609342022-fonte-automotiva-jfa-60a-storm-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>621.64</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411614036-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E14" t="n">
         <v>525.75</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#searchVariation=MLB22144397&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=978b19db-e66e-4b29-a4c2-5cbd790e9517</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:26540544#wid=MLB4002824900&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>423.3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583762457-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3637576386-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>64</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289788-controle-longa-distncia-jfa-k1200-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>84</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:26540544#wid=MLB4491087304&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>458.55</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4002819852-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>67</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1618771732-controle-longa-distncia-jfa-k1200-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:26540544#wid=MLB3596279279&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Voltímetro E Sequenciador Jfa Vs5hi Baixa/alta Voltagem</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411236986-voltimetro-e-sequenciador-jfa-vs5hi-baixaalta-voltagem-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Preto</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>445.19</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3771437003-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>436</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4787036568-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>465</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4787074982-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Preto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3771413321-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>639.9</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5031459492-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>592</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5031460420-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>572</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3740590529-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>815</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4795195880-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>765</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794934632-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>430</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4501525406-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 600 Metros Com Cordão</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1634289798-controle-longa-distncia-jfa-k600-600-metros-com-cordo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Storm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609409520-fonte-automotiva-jfa-60a-storm-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>568.15</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3435408439-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>125</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583901639-filtro-anti-ruido-jfa-20k-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Storm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>710.1900000000001</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366350-fonte-automotiva-jfa-120a-storm-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 70a Storm Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>567.73</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609434741-fonte-automotiva-carregador-jfa-70a-storm-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>534.97</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609366346-fonte-automotiva-jfa-70a-storm-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Filtro Anti Rúido Jfa - 20k</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>75</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3322496269-filtro-anti-ruido-jfa-20k-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>567.73</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3588850671-fonte-automotiva-jfa-70a-storm-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2609441377-fonte-automotiva-jfa-200a-storm-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5031183398-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>422</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744535633-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 40a Storm</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>414.87</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794918634-fonte-automotiva-jfa-40a-storm-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 40a Storm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>445.98</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794932186-fonte-automotiva-jfa-40a-storm-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>498.19</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5031182300-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2606f260-6b45-4da7-908f-25f0e4da3033</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>731.39</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4794930022-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82efabff-a1a3-4614-8d65-b135c2d530dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lsdistribuidoraa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Storm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>710.1900000000001</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3779492485-fonte-automotiva-jfa-120a-storm-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82efabff-a1a3-4614-8d65-b135c2d530dc</t>
         </is>
       </c>
     </row>
